--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Morley_(botaniste)/Thomas_Morley_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Morley_(botaniste)/Thomas_Morley_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Morley est un botaniste américain, né en 1917 et mort le 2 février 2002.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son Bachelor of Arts en 1940, son Master of Arts en 1941 et son Ph. D. en 1949 à l’université de Berkeley. Il rejoint le département de botanique de l’université du Minnesota en automne 1949 où il enseigne la taxinomie aux côtés de Gerald Bruce Ownbey (1916-), fonction qu’il conserve jusqu’à sa retraite en 1987. Il se spécialise sur les genres Mouriri et Votomita des arbres tropicaux de la famille des Melastomataceae. Il s’intéresse également à la flore du Minnesota.
 Avec G. Ownbey, il fait paraître Vascular plants of Minnesota: A checklist and atlas et avec Frederic Edward Clements (1874-1945) Guide to Spring Flowers.
